--- a/biology/Médecine/René_Auvigne/René_Auvigne.xlsx
+++ b/biology/Médecine/René_Auvigne/René_Auvigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Auvigne</t>
+          <t>René_Auvigne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Auvigne est un médecin urologue français né le 15 avril 1887[1] à Nantes où il est mort le 28 juin 1974.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Auvigne est un médecin urologue français né le 15 avril 1887 à Nantes où il est mort le 28 juin 1974.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Auvigne</t>
+          <t>René_Auvigne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René Pierre Auguste Auvigne est le fils de Jean-Baptiste Auguste Auvigne, confiseur, et de Marie Anne Alexandrine Sourget. Gendre d'Édouard Corblet, armateur au Havre, il est le père du Dr Jean Auvigne, professeur à la faculté de médecine de Nantes.
 Externe des hôpitaux de Paris en 1910, il est interne provisoire des hôpitaux de Paris en 1911 puis interne titulaire des hôpitaux de Paris en 1920, lauréat du concours. Il suit notamment les cours des Dr. Baumgartner, Fredet, Auvray, J.L. Faure, Chevassu et Marion.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Auvigne</t>
+          <t>René_Auvigne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fractures humérales fermées et ostéosynthèse (1920) - prix de thèse, médaille de bronze
 Série d'ostéo-synthèses pour fractures humérales fermées, exécutées depuis 1911 avec les résultats éloignés (thèse présentée en 1924)
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Auvigne</t>
+          <t>René_Auvigne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur
  Commandeur de l'ordre des Palmes académiques
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Auvigne</t>
+          <t>René_Auvigne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulevard Professeur-René-Auvigné, à Nantes
 Rue du Professeur René Auvigne, Sainte-Luce-sur-Loire</t>
